--- a/data/trans_camb/P19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 1,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 3,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 1,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 1,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-88,1; 630,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,53; 211,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,56; 227,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 373,93</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 1,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 1,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 1,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,82%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-75,97; 647,65</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-73,59; 780,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,58; 561,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,52; 660,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,62; 664,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,43; 263,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,17; 368,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,42; 271,68</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 1,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 2,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 0,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 0,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 1,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 0,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-68,67; 593,71</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 358,13</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,51; 353,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,01; 154,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,67; 89,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; 231,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,17; 91,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,15; 32,98</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 2,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 1,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,32; 140,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,46; 69,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,22; 93,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; 164,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,38; 107,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,65; 128,37</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 0,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 1,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 0,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 1,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 1,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 0,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 2,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 0,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,8%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 53,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-85,13; 166,77</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-87,73; 38,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,42; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,89; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,87; 102,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,76; 214,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,08; 67,55</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; -0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 1,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 1,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 2,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,25</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,92%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,85%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 23,58</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,19; 115,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,49; 8,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,65; 783,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,07; 1225,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,03; 460,68</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,28; 82,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,06; 204,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,68; 50,08</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 0,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,24</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,29%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,15; 57,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; 80,74</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,09; 41,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,06; 101,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,75; 100,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 58,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 55,42</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; 63,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,61; 29,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,41</t>
+          <t>-1,09; 5,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,58</t>
+          <t>-1,63; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,55</t>
+          <t>-1,03; 2,44</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-43,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 373,93</t>
+          <t>-100,0; 572,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,43</t>
+          <t>-0,88; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,61</t>
+          <t>-0,86; 1,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,17</t>
+          <t>-0,65; 1,1</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>23,02%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,62; 664,92</t>
+          <t>-78,59; 523,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,42; 271,68</t>
+          <t>-65,41; 248,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,08</t>
+          <t>-1,72; 0,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,4</t>
+          <t>-1,94; 0,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,11</t>
+          <t>-1,36; 0,08</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-72,37%</t>
+          <t>-75,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,75%</t>
+          <t>-48,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-57,15%</t>
+          <t>-58,68%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,67; 89,34</t>
+          <t>-87,47; 87,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 32,98</t>
+          <t>-85,57; 28,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,83</t>
+          <t>-0,78; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,01</t>
+          <t>-2,17; 0,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,02</t>
+          <t>-1,21; 0,79</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>132,82%</t>
+          <t>75,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,09%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>-9,42%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 93,78</t>
+          <t>-64,75; 84,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 128,37</t>
+          <t>-62,37; 90,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,18</t>
+          <t>-3,78; 0,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,59</t>
+          <t>-1,48; 1,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,56</t>
+          <t>-1,81; 0,6</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-55,57%</t>
+          <t>-54,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>-17,99%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,73; 38,48</t>
+          <t>-87,61; 40,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,89; —</t>
+          <t>-69,25; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,08; 67,55</t>
+          <t>-64,29; 73,29</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,33</t>
+          <t>-3,22; 0,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,25</t>
+          <t>-2,13; 2,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,08</t>
+          <t>-2,81; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,47</t>
+          <t>-1,4; 1,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,5</t>
+          <t>-0,81; 2,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,87</t>
+          <t>-1,83; 0,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,43</t>
+          <t>-1,56; 0,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,42</t>
+          <t>-0,95; 1,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,25</t>
+          <t>-1,7; 0,56</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-78,37%</t>
+          <t>-54,39%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-24,94%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-65,12%</t>
+          <t>-41,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>149,92%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-37,01%</t>
+          <t>-25,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-37,85%</t>
+          <t>-29,48%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 23,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-80,19; 115,8</t>
+          <t>-88,56; 567,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-89,49; 8,41</t>
+          <t>-88,01; 201,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-79,65; 783,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 1225,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 460,68</t>
+          <t>-87,38; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 82,26</t>
+          <t>-84,66; 202,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 204,24</t>
+          <t>-64,66; 335,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-72,68; 50,08</t>
+          <t>-81,56; 99,95</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,45</t>
+          <t>-7,5; -0,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,68</t>
+          <t>-6,02; 1,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,29</t>
+          <t>-7,15; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,86</t>
+          <t>-1,04; 2,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,83</t>
+          <t>-0,54; 4,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,49</t>
+          <t>-1,58; 0,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,5</t>
+          <t>-2,63; 0,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,57</t>
+          <t>-1,6; 2,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,24</t>
+          <t>-2,96; 0,24</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>-55,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>-84,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>107,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>291,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>-48,96%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>-53,58%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-79,61; 464,18</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-88,89; 59,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 0,45</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 0,68</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 0,34</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 0,86</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 0,83</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 0,44</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 0,5</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 0,57</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 0,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-9,31%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>13,32%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-15,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-49,15; 57,79</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-39,22; 80,74</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-58,09; 41,83</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-61,3; 45,0</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-22,06; 101,26</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-26,75; 100,42</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-38,13; 58,41</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-41,87; 55,32</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-25,54; 55,42</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-20,3; 63,09</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-37,61; 29,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-40,86; 23,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,82</t>
+          <t>-1,33; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,18</t>
+          <t>-1,68; 1,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,27</t>
+          <t>-1,11; 4,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,06</t>
+          <t>-1,49; 1,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,76</t>
+          <t>-1,2; 1,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,39</t>
+          <t>-1,47; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-0,95; 1,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-0,96; 1,06</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,11</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,44</t>
+          <t>-0,98; 2,58</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,1; 630,75</t>
+          <t>-83,95; 731,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 484,53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 211,25</t>
+          <t>-68,78; 224,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,56; 227,69</t>
+          <t>-69,04; 243,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 572,19</t>
+          <t>-83,52; 660,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,32</t>
+          <t>-0,77; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,93</t>
+          <t>-0,68; 1,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,71</t>
+          <t>-0,92; 1,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,43</t>
+          <t>-0,92; 1,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,96</t>
+          <t>-0,54; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,37</t>
+          <t>-0,88; 1,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,97</t>
+          <t>-0,53; 1,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,53</t>
+          <t>-0,25; 1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,1</t>
+          <t>-0,56; 1,06</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 647,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,59; 780,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-94,58; 561,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 660,07</t>
+          <t>-60,6; 947,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,59; 523,99</t>
+          <t>-78,28; 746,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 263,16</t>
+          <t>-59,94; 237,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 368,56</t>
+          <t>-34,11; 343,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,41; 248,11</t>
+          <t>-67,99; 274,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,65</t>
+          <t>-0,62; 1,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,07</t>
+          <t>-1,01; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,02</t>
+          <t>-1,64; 0,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,71</t>
+          <t>-0,42; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,85</t>
+          <t>-1,69; 0,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,39</t>
+          <t>-1,95; 0,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,72</t>
+          <t>-0,34; 1,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,59</t>
+          <t>-1,04; 0,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,08</t>
+          <t>-1,39; 0,04</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 593,71</t>
+          <t>-58,92; 573,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 358,13</t>
+          <t>-84,14; 536,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 353,04</t>
+          <t>-28,57; 365,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 154,04</t>
+          <t>-83,51; 135,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,47; 87,98</t>
+          <t>-88,32; 56,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 231,34</t>
+          <t>-25,01; 234,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 91,92</t>
+          <t>-72,47; 86,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,57; 28,19</t>
+          <t>-86,39; 18,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,43</t>
+          <t>-0,36; 2,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,37</t>
+          <t>-0,3; 2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,37</t>
+          <t>-0,74; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,49</t>
+          <t>-2,31; 1,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,3</t>
+          <t>-2,75; 0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,96</t>
+          <t>-2,05; 1,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,29</t>
+          <t>-0,99; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,83</t>
+          <t>-1,26; 0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,79</t>
+          <t>-1,35; 0,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,21; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,39; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,8; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,32; 140,2</t>
+          <t>-69,01; 166,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,46; 69,81</t>
+          <t>-88,28; 43,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 84,92</t>
+          <t>-64,43; 90,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 164,67</t>
+          <t>-53,86; 138,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 107,62</t>
+          <t>-66,02; 90,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,37; 90,69</t>
+          <t>-61,35; 93,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,18</t>
+          <t>-4,13; 0,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,6</t>
+          <t>-3,1; 1,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,19</t>
+          <t>-3,82; 0,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,92</t>
+          <t>-1,12; 2,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,39</t>
+          <t>-0,64; 3,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,63</t>
+          <t>-1,25; 1,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,8</t>
+          <t>-1,89; 0,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,0</t>
+          <t>-1,07; 2,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,6</t>
+          <t>-1,66; 0,76</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,81</t>
+          <t>-100,0; 75,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,13; 166,77</t>
+          <t>-84,71; 161,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 40,86</t>
+          <t>-87,1; 54,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,42; —</t>
+          <t>-60,64; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,25; —</t>
+          <t>-65,24; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 102,82</t>
+          <t>-77,82; 99,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 214,94</t>
+          <t>-50,58; 240,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 73,29</t>
+          <t>-61,02; 110,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,74</t>
+          <t>-3,29; 0,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,52</t>
+          <t>-2,06; 2,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,76</t>
+          <t>-3,31; 0,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,65</t>
+          <t>-1,43; 1,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,37</t>
+          <t>-1,06; 2,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,88</t>
+          <t>-2,04; 0,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,8</t>
+          <t>-1,59; 0,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,69</t>
+          <t>-1,14; 1,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,56</t>
+          <t>-1,68; 0,48</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-88,56; 567,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-88,01; 201,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,22 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,38; —</t>
+          <t>-92,4; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-84,66; 202,78</t>
+          <t>-82,16; 185,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 335,46</t>
+          <t>-66,51; 330,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 99,95</t>
+          <t>-81,88; 88,92</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,74</t>
+          <t>-7,19; -0,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,21</t>
+          <t>-5,65; 1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,0</t>
+          <t>-7,32; -0,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,26</t>
+          <t>-1,09; 2,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,77</t>
+          <t>-0,07; 4,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,98</t>
+          <t>-1,86; 1,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,6</t>
+          <t>-2,44; 0,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,22</t>
+          <t>-1,5; 2,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,24</t>
+          <t>-3,05; 0,34</t>
         </is>
       </c>
     </row>
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 203,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-79,61; 464,18</t>
+          <t>-75,17; 567,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-88,89; 59,6</t>
+          <t>-90,41; 104,05</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,45</t>
+          <t>-0,71; 0,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,68</t>
+          <t>-0,51; 0,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,34</t>
+          <t>-0,86; 0,3</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,86</t>
+          <t>-0,21; 0,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,83</t>
+          <t>-0,38; 0,74</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,44</t>
+          <t>-0,66; 0,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,5</t>
+          <t>-0,32; 0,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,57</t>
+          <t>-0,32; 0,55</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,21</t>
+          <t>-0,53; 0,27</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 57,79</t>
+          <t>-49,16; 54,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 80,74</t>
+          <t>-39,23; 92,43</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-61,3; 45,0</t>
+          <t>-60,57; 42,57</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 101,26</t>
+          <t>-17,18; 108,3</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 100,42</t>
+          <t>-27,42; 86,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-41,87; 55,32</t>
+          <t>-43,94; 43,48</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 55,42</t>
+          <t>-23,52; 48,82</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 63,09</t>
+          <t>-24,37; 59,02</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 23,89</t>
+          <t>-39,74; 31,47</t>
         </is>
       </c>
     </row>
